--- a/data/ZSL_IUCN_completed.xlsx
+++ b/data/ZSL_IUCN_completed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pstephan\Documents\github\ConservationStatus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358E50EE-ED14-4C33-BFB7-CEF3FE8443CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91ED5CD0-451A-42F1-9997-EEA75EE374BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1611" uniqueCount="165">
   <si>
     <t>Species</t>
   </si>
@@ -97,9 +97,6 @@
     <t>Albania</t>
   </si>
   <si>
-    <t>LRnt</t>
-  </si>
-  <si>
     <t>France (continental)</t>
   </si>
   <si>
@@ -449,6 +446,75 @@
   </si>
   <si>
     <t>Bathytoshia centroura</t>
+  </si>
+  <si>
+    <t>NE Atlantic</t>
+  </si>
+  <si>
+    <t>Apristurus aphyodes</t>
+  </si>
+  <si>
+    <t>Apristurus laurussonii</t>
+  </si>
+  <si>
+    <t>Apristurus manis</t>
+  </si>
+  <si>
+    <t>Apristurus microps</t>
+  </si>
+  <si>
+    <t>Apristurus melanoasper</t>
+  </si>
+  <si>
+    <t>Galeus murinus</t>
+  </si>
+  <si>
+    <t>Daliatis licha</t>
+  </si>
+  <si>
+    <t>Centrophorus uyato</t>
+  </si>
+  <si>
+    <t>Amblyraja hyperborea</t>
+  </si>
+  <si>
+    <t>Amblyraja jenseni</t>
+  </si>
+  <si>
+    <t>Dipturus nidarosiensis</t>
+  </si>
+  <si>
+    <t>Malacoraja kreffti</t>
+  </si>
+  <si>
+    <t>Neoraja caerulea</t>
+  </si>
+  <si>
+    <t>Rajella bathyphila</t>
+  </si>
+  <si>
+    <t>Rajella bigelowi</t>
+  </si>
+  <si>
+    <t>Rajella kukujevi</t>
+  </si>
+  <si>
+    <t>Hydroalgus affinis</t>
+  </si>
+  <si>
+    <t>Hydroalgus mirabilis</t>
+  </si>
+  <si>
+    <t>Hydroalgus pallidus</t>
+  </si>
+  <si>
+    <t>A2bd</t>
+  </si>
+  <si>
+    <t>Criterion</t>
+  </si>
+  <si>
+    <t>D1</t>
   </si>
 </sst>
 </file>
@@ -835,10 +901,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E356"/>
+  <dimension ref="A1:G439"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A349" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -848,7 +914,7 @@
     <col min="3" max="3" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -864,21 +930,24 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -887,283 +956,283 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" t="s">
         <v>52</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
         <v>15</v>
       </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" t="s">
         <v>30</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" t="s">
         <v>7</v>
       </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="D15">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>131</v>
+      </c>
+      <c r="B16" t="s">
         <v>26</v>
       </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="C16" t="s">
         <v>20</v>
       </c>
-      <c r="D13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>132</v>
-      </c>
-      <c r="B14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>132</v>
-      </c>
-      <c r="B15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15">
+      <c r="D16">
         <v>2016</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>132</v>
-      </c>
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16">
-        <v>2007</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D17">
-        <v>2016</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
         <v>14</v>
       </c>
       <c r="D18">
-        <v>2016</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D19">
-        <v>2007</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D20">
-        <v>2013</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D21">
         <v>2007</v>
@@ -1171,7 +1240,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>68</v>
+        <v>141</v>
       </c>
       <c r="B22" t="s">
         <v>13</v>
@@ -1185,13 +1254,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>68</v>
+        <v>141</v>
       </c>
       <c r="B23" t="s">
         <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D23">
         <v>2007</v>
@@ -1199,7 +1268,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B24" t="s">
         <v>13</v>
@@ -1213,7 +1282,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B25" t="s">
         <v>16</v>
@@ -1227,7 +1296,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B26" t="s">
         <v>13</v>
@@ -1241,7 +1310,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B27" t="s">
         <v>16</v>
@@ -1255,7 +1324,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B28" t="s">
         <v>13</v>
@@ -1269,13 +1338,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B29" t="s">
         <v>16</v>
       </c>
       <c r="C29" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D29">
         <v>2007</v>
@@ -1283,41 +1352,41 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C30" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D30">
-        <v>2007</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C31" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D31">
-        <v>2013</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B32" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C32" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="D32">
         <v>2007</v>
@@ -1325,41 +1394,41 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C33" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D33">
-        <v>2007</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B34" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C34" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D34">
-        <v>2013</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B35" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C35" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D35">
         <v>2007</v>
@@ -1367,7 +1436,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="B36" t="s">
         <v>13</v>
@@ -1381,13 +1450,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="B37" t="s">
         <v>16</v>
       </c>
       <c r="C37" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D37">
         <v>2007</v>
@@ -1395,41 +1464,41 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B38" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C38" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D38">
-        <v>2016</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B39" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C39" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D39">
-        <v>2016</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C40" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="D40">
         <v>2016</v>
@@ -1437,92 +1506,86 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B41" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C41" t="s">
         <v>14</v>
       </c>
       <c r="D41">
-        <v>2013</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B42" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C42" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D42">
-        <v>2007</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="B43" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C43" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D43">
-        <v>2016</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="B44" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C44" t="s">
-        <v>18</v>
-      </c>
-      <c r="D44" t="s">
-        <v>8</v>
-      </c>
-      <c r="E44" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="D44">
+        <v>2007</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="B45" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C45" t="s">
-        <v>18</v>
-      </c>
-      <c r="D45" t="s">
-        <v>11</v>
-      </c>
-      <c r="E45" t="s">
-        <v>12</v>
+        <v>7</v>
+      </c>
+      <c r="D45">
+        <v>2016</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B46" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C46" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D46" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E46" t="s">
         <v>12</v>
@@ -1530,33 +1593,30 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B47" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C47" t="s">
-        <v>7</v>
-      </c>
-      <c r="D47" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" t="s">
-        <v>12</v>
+        <v>42</v>
+      </c>
+      <c r="D47">
+        <v>2013</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C48" t="s">
         <v>18</v>
       </c>
       <c r="D48" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
         <v>12</v>
@@ -1564,16 +1624,16 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B49" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C49" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D49" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E49" t="s">
         <v>12</v>
@@ -1581,16 +1641,16 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B50" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C50" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="D50" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E50" t="s">
         <v>12</v>
@@ -1598,16 +1658,16 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D51" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E51" t="s">
         <v>12</v>
@@ -1615,16 +1675,16 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="C52" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D52" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="E52" t="s">
         <v>12</v>
@@ -1632,16 +1692,16 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C53" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="D53" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E53" t="s">
         <v>12</v>
@@ -1649,16 +1709,16 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="C54" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D54" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E54" t="s">
         <v>12</v>
@@ -1666,16 +1726,16 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
         <v>55</v>
       </c>
-      <c r="B55" t="s">
-        <v>24</v>
-      </c>
       <c r="C55" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="D55" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="E55" t="s">
         <v>12</v>
@@ -1683,16 +1743,16 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="C56" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="D56" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E56" t="s">
         <v>12</v>
@@ -1700,16 +1760,16 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C57" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="D57" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="E57" t="s">
         <v>12</v>
@@ -1717,13 +1777,13 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B58" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C58" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="D58" t="s">
         <v>15</v>
@@ -1734,16 +1794,16 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B59" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="C59" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D59" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="E59" t="s">
         <v>12</v>
@@ -1751,33 +1811,33 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="B60" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C60" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="D60" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="E60" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="B61" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C61" t="s">
         <v>7</v>
       </c>
       <c r="D61" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E61" t="s">
         <v>12</v>
@@ -1785,16 +1845,16 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="B62" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C62" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D62" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E62" t="s">
         <v>12</v>
@@ -1805,10 +1865,10 @@
         <v>5</v>
       </c>
       <c r="B63" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C63" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D63" t="s">
         <v>8</v>
@@ -1822,16 +1882,13 @@
         <v>5</v>
       </c>
       <c r="B64" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C64" t="s">
-        <v>18</v>
-      </c>
-      <c r="D64" t="s">
-        <v>19</v>
-      </c>
-      <c r="E64" t="s">
-        <v>12</v>
+        <v>42</v>
+      </c>
+      <c r="D64">
+        <v>2013</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -1842,10 +1899,10 @@
         <v>10</v>
       </c>
       <c r="C65" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D65" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
         <v>12</v>
@@ -1856,10 +1913,10 @@
         <v>5</v>
       </c>
       <c r="B66" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C66" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D66" t="s">
         <v>15</v>
@@ -1873,16 +1930,16 @@
         <v>5</v>
       </c>
       <c r="B67" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C67" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D67" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E67" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
@@ -1890,13 +1947,13 @@
         <v>5</v>
       </c>
       <c r="B68" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C68" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D68" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E68" t="s">
         <v>12</v>
@@ -1907,13 +1964,13 @@
         <v>5</v>
       </c>
       <c r="B69" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="C69" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D69" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E69" t="s">
         <v>12</v>
@@ -1921,148 +1978,148 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>120</v>
+        <v>5</v>
       </c>
       <c r="B70" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C70" t="s">
-        <v>17</v>
-      </c>
-      <c r="D70">
-        <v>2016</v>
+        <v>23</v>
+      </c>
+      <c r="D70" t="s">
+        <v>15</v>
+      </c>
+      <c r="E70" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>72</v>
+        <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C71" t="s">
-        <v>20</v>
-      </c>
-      <c r="D71">
-        <v>2016</v>
+        <v>17</v>
+      </c>
+      <c r="D71" t="s">
+        <v>15</v>
+      </c>
+      <c r="E71" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="B72" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C72" t="s">
-        <v>7</v>
-      </c>
-      <c r="D72">
-        <v>2016</v>
+        <v>23</v>
+      </c>
+      <c r="D72" t="s">
+        <v>15</v>
+      </c>
+      <c r="E72" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="B73" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C73" t="s">
-        <v>23</v>
-      </c>
-      <c r="D73">
-        <v>2013</v>
+        <v>17</v>
+      </c>
+      <c r="D73" t="s">
+        <v>27</v>
+      </c>
+      <c r="E73" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="B74" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C74" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D74">
-        <v>2007</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="B75" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C75" t="s">
-        <v>14</v>
-      </c>
-      <c r="D75" t="s">
-        <v>15</v>
-      </c>
-      <c r="E75" t="s">
-        <v>12</v>
+        <v>20</v>
+      </c>
+      <c r="D75">
+        <v>2016</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="B76" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C76" t="s">
         <v>7</v>
       </c>
-      <c r="D76" t="s">
-        <v>8</v>
-      </c>
-      <c r="E76" t="s">
-        <v>12</v>
+      <c r="D76">
+        <v>2016</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="B77" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C77" t="s">
-        <v>17</v>
-      </c>
-      <c r="D77" t="s">
-        <v>8</v>
-      </c>
-      <c r="E77" t="s">
-        <v>12</v>
+        <v>23</v>
+      </c>
+      <c r="D77">
+        <v>2013</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="B78" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C78" t="s">
-        <v>14</v>
-      </c>
-      <c r="D78" t="s">
-        <v>15</v>
-      </c>
-      <c r="E78" t="s">
-        <v>12</v>
+        <v>23</v>
+      </c>
+      <c r="D78">
+        <v>2007</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B79" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C79" t="s">
         <v>14</v>
@@ -2076,16 +2133,16 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
+        <v>28</v>
+      </c>
+      <c r="B80" t="s">
         <v>29</v>
       </c>
-      <c r="B80" t="s">
-        <v>31</v>
-      </c>
       <c r="C80" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="D80" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E80" t="s">
         <v>12</v>
@@ -2093,16 +2150,16 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B81" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C81" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D81" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E81" t="s">
         <v>12</v>
@@ -2110,18 +2167,30 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>109</v>
+        <v>28</v>
+      </c>
+      <c r="B82" t="s">
+        <v>22</v>
+      </c>
+      <c r="C82" t="s">
+        <v>14</v>
+      </c>
+      <c r="D82" t="s">
+        <v>15</v>
+      </c>
+      <c r="E82" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="B83" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C83" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D83" t="s">
         <v>15</v>
@@ -2132,16 +2201,16 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="B84" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C84" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D84" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E84" t="s">
         <v>12</v>
@@ -2149,16 +2218,16 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="B85" t="s">
+        <v>26</v>
+      </c>
+      <c r="C85" t="s">
+        <v>18</v>
+      </c>
+      <c r="D85" t="s">
         <v>27</v>
-      </c>
-      <c r="C85" t="s">
-        <v>17</v>
-      </c>
-      <c r="D85" t="s">
-        <v>28</v>
       </c>
       <c r="E85" t="s">
         <v>12</v>
@@ -2166,50 +2235,38 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>34</v>
-      </c>
-      <c r="B86" t="s">
-        <v>35</v>
-      </c>
-      <c r="C86" t="s">
-        <v>23</v>
-      </c>
-      <c r="D86" t="s">
-        <v>36</v>
-      </c>
-      <c r="E86" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B87" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C87" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D87" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E87" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B88" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C88" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D88" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E88" t="s">
         <v>12</v>
@@ -2217,16 +2274,16 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B89" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C89" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D89" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E89" t="s">
         <v>12</v>
@@ -2234,16 +2291,16 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
+        <v>33</v>
+      </c>
+      <c r="B90" t="s">
         <v>34</v>
       </c>
-      <c r="B90" t="s">
-        <v>30</v>
-      </c>
       <c r="C90" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D90" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="E90" t="s">
         <v>12</v>
@@ -2251,50 +2308,47 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B91" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C91" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D91" t="s">
         <v>8</v>
       </c>
       <c r="E91" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B92" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C92" t="s">
-        <v>38</v>
-      </c>
-      <c r="D92" t="s">
-        <v>19</v>
-      </c>
-      <c r="E92" t="s">
-        <v>12</v>
+        <v>37</v>
+      </c>
+      <c r="D92">
+        <v>2013</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B93" t="s">
         <v>10</v>
       </c>
       <c r="C93" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D93" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
         <v>12</v>
@@ -2302,10 +2356,10 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B94" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C94" t="s">
         <v>23</v>
@@ -2319,16 +2373,16 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B95" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C95" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="D95" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E95" t="s">
         <v>12</v>
@@ -2336,16 +2390,16 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B96" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C96" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D96" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E96" t="s">
         <v>12</v>
@@ -2353,16 +2407,16 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B97" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="C97" t="s">
         <v>37</v>
       </c>
       <c r="D97" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E97" t="s">
         <v>12</v>
@@ -2370,195 +2424,210 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="B98" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="C98" t="s">
-        <v>37</v>
-      </c>
-      <c r="D98">
-        <v>2016</v>
+        <v>18</v>
+      </c>
+      <c r="D98" t="s">
+        <v>21</v>
+      </c>
+      <c r="E98" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>104</v>
+        <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C99" t="s">
-        <v>7</v>
-      </c>
-      <c r="D99">
-        <v>2007</v>
+        <v>23</v>
+      </c>
+      <c r="D99" t="s">
+        <v>15</v>
+      </c>
+      <c r="E99" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>104</v>
+        <v>33</v>
       </c>
       <c r="B100" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C100" t="s">
-        <v>23</v>
-      </c>
-      <c r="D100">
-        <v>2006</v>
+        <v>36</v>
+      </c>
+      <c r="D100" t="s">
+        <v>19</v>
+      </c>
+      <c r="E100" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>104</v>
+        <v>33</v>
       </c>
       <c r="B101" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C101" t="s">
-        <v>7</v>
-      </c>
-      <c r="D101">
-        <v>2016</v>
+        <v>23</v>
+      </c>
+      <c r="D101" t="s">
+        <v>15</v>
+      </c>
+      <c r="E101" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>104</v>
+        <v>33</v>
       </c>
       <c r="B102" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C102" t="s">
-        <v>14</v>
-      </c>
-      <c r="D102">
-        <v>2013</v>
+        <v>36</v>
+      </c>
+      <c r="D102" t="s">
+        <v>27</v>
+      </c>
+      <c r="E102" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B103" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C103" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D103">
-        <v>2007</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C104" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D104">
-        <v>2016</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C105" t="s">
         <v>23</v>
       </c>
       <c r="D105">
-        <v>2013</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="B106" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C106" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D106">
-        <v>2007</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="B107" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C107" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D107">
-        <v>2016</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="B108" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C108" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D108">
-        <v>2005</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B109" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C109" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D109">
-        <v>2010</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B110" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C110" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D110">
-        <v>2000</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B111" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C111" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D111">
         <v>2007</v>
@@ -2566,267 +2635,255 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B112" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C112" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D112">
         <v>2016</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B113" t="s">
+        <v>10</v>
+      </c>
+      <c r="C113" t="s">
+        <v>7</v>
+      </c>
+      <c r="D113">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>78</v>
+      </c>
+      <c r="B114" t="s">
+        <v>10</v>
+      </c>
+      <c r="C114" t="s">
+        <v>7</v>
+      </c>
+      <c r="D114">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>78</v>
+      </c>
+      <c r="B115" t="s">
+        <v>10</v>
+      </c>
+      <c r="C115" t="s">
+        <v>14</v>
+      </c>
+      <c r="D115">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>78</v>
+      </c>
+      <c r="B116" t="s">
+        <v>6</v>
+      </c>
+      <c r="C116" t="s">
+        <v>7</v>
+      </c>
+      <c r="D116">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>78</v>
+      </c>
+      <c r="B117" t="s">
+        <v>26</v>
+      </c>
+      <c r="C117" t="s">
+        <v>14</v>
+      </c>
+      <c r="D117">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>78</v>
+      </c>
+      <c r="B118" t="s">
         <v>13</v>
       </c>
-      <c r="C113" t="s">
-        <v>14</v>
-      </c>
-      <c r="D113">
+      <c r="C118" t="s">
+        <v>14</v>
+      </c>
+      <c r="D118">
         <v>2013</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>79</v>
-      </c>
-      <c r="B114" t="s">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>78</v>
+      </c>
+      <c r="B119" t="s">
         <v>16</v>
       </c>
-      <c r="C114" t="s">
-        <v>14</v>
-      </c>
-      <c r="D114">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>57</v>
-      </c>
-      <c r="B116" t="s">
+      <c r="C119" t="s">
+        <v>14</v>
+      </c>
+      <c r="D119">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>56</v>
+      </c>
+      <c r="B121" t="s">
+        <v>34</v>
+      </c>
+      <c r="C121" t="s">
+        <v>23</v>
+      </c>
+      <c r="D121" t="s">
         <v>35</v>
       </c>
-      <c r="C116" t="s">
-        <v>23</v>
-      </c>
-      <c r="D116" t="s">
+      <c r="E121" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>56</v>
+      </c>
+      <c r="B122" t="s">
+        <v>6</v>
+      </c>
+      <c r="C122" t="s">
+        <v>18</v>
+      </c>
+      <c r="D122" t="s">
+        <v>8</v>
+      </c>
+      <c r="E122" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>56</v>
+      </c>
+      <c r="B123" t="s">
+        <v>6</v>
+      </c>
+      <c r="C123" t="s">
+        <v>7</v>
+      </c>
+      <c r="D123">
+        <v>2013</v>
+      </c>
+      <c r="F123" t="s">
+        <v>162</v>
+      </c>
+      <c r="G123" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>56</v>
+      </c>
+      <c r="B124" t="s">
+        <v>10</v>
+      </c>
+      <c r="C124" t="s">
+        <v>7</v>
+      </c>
+      <c r="D124" t="s">
+        <v>11</v>
+      </c>
+      <c r="E124" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>56</v>
+      </c>
+      <c r="B125" t="s">
+        <v>13</v>
+      </c>
+      <c r="C125" t="s">
         <v>36</v>
       </c>
-      <c r="E116" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
-        <v>57</v>
-      </c>
-      <c r="B117" t="s">
-        <v>6</v>
-      </c>
-      <c r="C117" t="s">
+      <c r="D125" t="s">
+        <v>15</v>
+      </c>
+      <c r="E125" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>56</v>
+      </c>
+      <c r="B126" t="s">
+        <v>29</v>
+      </c>
+      <c r="C126" t="s">
         <v>18</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D126" t="s">
         <v>8</v>
       </c>
-      <c r="E117" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
-        <v>57</v>
-      </c>
-      <c r="B118" t="s">
-        <v>10</v>
-      </c>
-      <c r="C118" t="s">
-        <v>7</v>
-      </c>
-      <c r="D118" t="s">
-        <v>11</v>
-      </c>
-      <c r="E118" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>57</v>
-      </c>
-      <c r="B119" t="s">
-        <v>13</v>
-      </c>
-      <c r="C119" t="s">
-        <v>37</v>
-      </c>
-      <c r="D119" t="s">
-        <v>15</v>
-      </c>
-      <c r="E119" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>57</v>
-      </c>
-      <c r="B120" t="s">
-        <v>30</v>
-      </c>
-      <c r="C120" t="s">
-        <v>18</v>
-      </c>
-      <c r="D120" t="s">
-        <v>8</v>
-      </c>
-      <c r="E120" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
-        <v>57</v>
-      </c>
-      <c r="B121" t="s">
+      <c r="E126" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>56</v>
+      </c>
+      <c r="B127" t="s">
         <v>16</v>
-      </c>
-      <c r="C121" t="s">
-        <v>7</v>
-      </c>
-      <c r="D121" t="s">
-        <v>8</v>
-      </c>
-      <c r="E121" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
-        <v>57</v>
-      </c>
-      <c r="B122" t="s">
-        <v>10</v>
-      </c>
-      <c r="C122" t="s">
-        <v>7</v>
-      </c>
-      <c r="D122" t="s">
-        <v>19</v>
-      </c>
-      <c r="E122" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
-        <v>57</v>
-      </c>
-      <c r="B123" t="s">
-        <v>10</v>
-      </c>
-      <c r="C123" t="s">
-        <v>20</v>
-      </c>
-      <c r="D123" t="s">
-        <v>21</v>
-      </c>
-      <c r="E123" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
-        <v>57</v>
-      </c>
-      <c r="B124" t="s">
-        <v>22</v>
-      </c>
-      <c r="C124" t="s">
-        <v>23</v>
-      </c>
-      <c r="D124" t="s">
-        <v>15</v>
-      </c>
-      <c r="E124" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
-        <v>57</v>
-      </c>
-      <c r="B125" t="s">
-        <v>35</v>
-      </c>
-      <c r="C125" t="s">
-        <v>23</v>
-      </c>
-      <c r="D125" t="s">
-        <v>19</v>
-      </c>
-      <c r="E125" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
-        <v>57</v>
-      </c>
-      <c r="B126" t="s">
-        <v>49</v>
-      </c>
-      <c r="C126" t="s">
-        <v>37</v>
-      </c>
-      <c r="D126" t="s">
-        <v>50</v>
-      </c>
-      <c r="E126" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
-        <v>57</v>
-      </c>
-      <c r="B127" t="s">
-        <v>51</v>
       </c>
       <c r="C127" t="s">
         <v>7</v>
       </c>
       <c r="D127" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="E127" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B128" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C128" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D128" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E128" t="s">
         <v>12</v>
@@ -2834,16 +2891,16 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B129" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="C129" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D129" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E129" t="s">
         <v>12</v>
@@ -2851,88 +2908,115 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B130" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C130" t="s">
-        <v>25</v>
-      </c>
-      <c r="D130">
-        <v>2013</v>
+        <v>23</v>
+      </c>
+      <c r="D130" t="s">
+        <v>15</v>
+      </c>
+      <c r="E130" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B131" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C131" t="s">
-        <v>14</v>
-      </c>
-      <c r="D131">
-        <v>2016</v>
+        <v>23</v>
+      </c>
+      <c r="D131" t="s">
+        <v>19</v>
+      </c>
+      <c r="E131" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B132" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="C132" t="s">
-        <v>14</v>
-      </c>
-      <c r="D132">
-        <v>2013</v>
+        <v>36</v>
+      </c>
+      <c r="D132" t="s">
+        <v>49</v>
+      </c>
+      <c r="E132" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B133" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="C133" t="s">
-        <v>14</v>
-      </c>
-      <c r="D133">
-        <v>2007</v>
+        <v>7</v>
+      </c>
+      <c r="D133" t="s">
+        <v>49</v>
+      </c>
+      <c r="E133" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>127</v>
+        <v>56</v>
+      </c>
+      <c r="B134" t="s">
+        <v>25</v>
+      </c>
+      <c r="C134" t="s">
+        <v>23</v>
+      </c>
+      <c r="D134" t="s">
+        <v>15</v>
+      </c>
+      <c r="E134" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>136</v>
+        <v>56</v>
       </c>
       <c r="B135" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C135" t="s">
-        <v>18</v>
-      </c>
-      <c r="D135">
-        <v>2007</v>
+        <v>7</v>
+      </c>
+      <c r="D135" t="s">
+        <v>27</v>
+      </c>
+      <c r="E135" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>136</v>
+        <v>64</v>
       </c>
       <c r="B136" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C136" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="D136">
         <v>2013</v>
@@ -2940,628 +3024,595 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="B137" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C137" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D137">
-        <v>2013</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="B138" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C138" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="D138">
-        <v>2007</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>123</v>
+        <v>64</v>
       </c>
       <c r="B139" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C139" t="s">
         <v>14</v>
       </c>
       <c r="D139">
-        <v>2016</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="B140" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C140" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D140">
-        <v>2007</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>80</v>
-      </c>
-      <c r="B141" t="s">
-        <v>27</v>
-      </c>
-      <c r="C141" t="s">
-        <v>20</v>
-      </c>
-      <c r="D141">
-        <v>2016</v>
+        <v>126</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="B142" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C142" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D142">
-        <v>2013</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="B143" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C143" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="D143">
-        <v>2007</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="B144" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C144" t="s">
+        <v>23</v>
+      </c>
+      <c r="D144">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>109</v>
+      </c>
+      <c r="B145" t="s">
+        <v>16</v>
+      </c>
+      <c r="C145" t="s">
+        <v>36</v>
+      </c>
+      <c r="D145">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>122</v>
+      </c>
+      <c r="B146" t="s">
+        <v>26</v>
+      </c>
+      <c r="C146" t="s">
+        <v>14</v>
+      </c>
+      <c r="D146">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>79</v>
+      </c>
+      <c r="B147" t="s">
+        <v>29</v>
+      </c>
+      <c r="C147" t="s">
+        <v>23</v>
+      </c>
+      <c r="D147">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>79</v>
+      </c>
+      <c r="B148" t="s">
+        <v>26</v>
+      </c>
+      <c r="C148" t="s">
+        <v>20</v>
+      </c>
+      <c r="D148">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>79</v>
+      </c>
+      <c r="B149" t="s">
+        <v>13</v>
+      </c>
+      <c r="C149" t="s">
+        <v>23</v>
+      </c>
+      <c r="D149">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>79</v>
+      </c>
+      <c r="B150" t="s">
+        <v>16</v>
+      </c>
+      <c r="C150" t="s">
+        <v>7</v>
+      </c>
+      <c r="D150">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>80</v>
+      </c>
+      <c r="B151" t="s">
+        <v>29</v>
+      </c>
+      <c r="C151" t="s">
         <v>18</v>
       </c>
-      <c r="D144">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
-        <v>81</v>
-      </c>
-      <c r="B145" t="s">
-        <v>27</v>
-      </c>
-      <c r="C145" t="s">
+      <c r="D151">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>80</v>
+      </c>
+      <c r="B152" t="s">
+        <v>26</v>
+      </c>
+      <c r="C152" t="s">
         <v>17</v>
       </c>
-      <c r="D145">
+      <c r="D152">
         <v>2016</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
-        <v>81</v>
-      </c>
-      <c r="B146" t="s">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>80</v>
+      </c>
+      <c r="B153" t="s">
         <v>6</v>
       </c>
-      <c r="C146" t="s">
-        <v>37</v>
-      </c>
-      <c r="D146">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
-        <v>81</v>
-      </c>
-      <c r="B147" t="s">
+      <c r="C153" t="s">
+        <v>36</v>
+      </c>
+      <c r="D153">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>80</v>
+      </c>
+      <c r="B154" t="s">
         <v>13</v>
       </c>
-      <c r="C147" t="s">
-        <v>23</v>
-      </c>
-      <c r="D147">
+      <c r="C154" t="s">
+        <v>23</v>
+      </c>
+      <c r="D154">
         <v>2013</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A148" t="s">
-        <v>81</v>
-      </c>
-      <c r="B148" t="s">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>80</v>
+      </c>
+      <c r="B155" t="s">
         <v>16</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C155" t="s">
         <v>17</v>
       </c>
-      <c r="D148">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
+      <c r="D155">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>120</v>
+      </c>
+      <c r="B156" t="s">
+        <v>26</v>
+      </c>
+      <c r="C156" t="s">
+        <v>14</v>
+      </c>
+      <c r="D156">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
         <v>121</v>
       </c>
-      <c r="B149" t="s">
-        <v>27</v>
-      </c>
-      <c r="C149" t="s">
-        <v>14</v>
-      </c>
-      <c r="D149">
+      <c r="B157" t="s">
+        <v>26</v>
+      </c>
+      <c r="C157" t="s">
+        <v>17</v>
+      </c>
+      <c r="D157">
         <v>2016</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
-        <v>122</v>
-      </c>
-      <c r="B150" t="s">
-        <v>27</v>
-      </c>
-      <c r="C150" t="s">
-        <v>17</v>
-      </c>
-      <c r="D150">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>127</v>
+      </c>
+      <c r="B158" t="s">
+        <v>26</v>
+      </c>
+      <c r="C158" t="s">
+        <v>20</v>
+      </c>
+      <c r="D158">
         <v>2016</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A151" t="s">
-        <v>128</v>
-      </c>
-      <c r="B151" t="s">
-        <v>27</v>
-      </c>
-      <c r="C151" t="s">
-        <v>20</v>
-      </c>
-      <c r="D151">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A152" t="s">
-        <v>128</v>
-      </c>
-      <c r="B152" t="s">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>127</v>
+      </c>
+      <c r="B159" t="s">
         <v>13</v>
       </c>
-      <c r="C152" t="s">
-        <v>23</v>
-      </c>
-      <c r="D152">
+      <c r="C159" t="s">
+        <v>23</v>
+      </c>
+      <c r="D159">
         <v>2013</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A153" t="s">
-        <v>128</v>
-      </c>
-      <c r="B153" t="s">
-        <v>16</v>
-      </c>
-      <c r="C153" t="s">
-        <v>37</v>
-      </c>
-      <c r="D153">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
-        <v>58</v>
-      </c>
-      <c r="B154" t="s">
-        <v>35</v>
-      </c>
-      <c r="C154" t="s">
-        <v>7</v>
-      </c>
-      <c r="D154" t="s">
-        <v>36</v>
-      </c>
-      <c r="E154" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A155" t="s">
-        <v>58</v>
-      </c>
-      <c r="B155" t="s">
-        <v>6</v>
-      </c>
-      <c r="C155" t="s">
-        <v>37</v>
-      </c>
-      <c r="D155" t="s">
-        <v>8</v>
-      </c>
-      <c r="E155" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A156" t="s">
-        <v>58</v>
-      </c>
-      <c r="B156" t="s">
-        <v>10</v>
-      </c>
-      <c r="C156" t="s">
-        <v>37</v>
-      </c>
-      <c r="D156" t="s">
-        <v>11</v>
-      </c>
-      <c r="E156" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A157" t="s">
-        <v>58</v>
-      </c>
-      <c r="B157" t="s">
-        <v>13</v>
-      </c>
-      <c r="C157" t="s">
-        <v>23</v>
-      </c>
-      <c r="D157" t="s">
-        <v>15</v>
-      </c>
-      <c r="E157" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A158" t="s">
-        <v>58</v>
-      </c>
-      <c r="B158" t="s">
-        <v>30</v>
-      </c>
-      <c r="C158" t="s">
-        <v>14</v>
-      </c>
-      <c r="D158" t="s">
-        <v>8</v>
-      </c>
-      <c r="E158" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A159" t="s">
-        <v>58</v>
-      </c>
-      <c r="B159" t="s">
-        <v>51</v>
-      </c>
-      <c r="C159" t="s">
-        <v>18</v>
-      </c>
-      <c r="D159" t="s">
-        <v>59</v>
-      </c>
-      <c r="E159" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>58</v>
+        <v>127</v>
       </c>
       <c r="B160" t="s">
         <v>16</v>
       </c>
       <c r="C160" t="s">
-        <v>37</v>
-      </c>
-      <c r="D160" t="s">
+        <v>36</v>
+      </c>
+      <c r="D160">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>57</v>
+      </c>
+      <c r="B161" t="s">
+        <v>34</v>
+      </c>
+      <c r="C161" t="s">
+        <v>7</v>
+      </c>
+      <c r="D161" t="s">
+        <v>35</v>
+      </c>
+      <c r="E161" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>57</v>
+      </c>
+      <c r="B162" t="s">
+        <v>6</v>
+      </c>
+      <c r="C162" t="s">
+        <v>36</v>
+      </c>
+      <c r="D162" t="s">
         <v>8</v>
       </c>
-      <c r="E160" t="s">
+      <c r="E162" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A161" t="s">
-        <v>58</v>
-      </c>
-      <c r="B161" t="s">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>57</v>
+      </c>
+      <c r="B163" t="s">
+        <v>6</v>
+      </c>
+      <c r="C163" t="s">
+        <v>36</v>
+      </c>
+      <c r="F163" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>57</v>
+      </c>
+      <c r="B164" t="s">
         <v>10</v>
       </c>
-      <c r="C161" t="s">
-        <v>37</v>
-      </c>
-      <c r="D161" t="s">
-        <v>19</v>
-      </c>
-      <c r="E161" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A162" t="s">
-        <v>58</v>
-      </c>
-      <c r="B162" t="s">
-        <v>10</v>
-      </c>
-      <c r="C162" t="s">
-        <v>7</v>
-      </c>
-      <c r="D162" t="s">
-        <v>21</v>
-      </c>
-      <c r="E162" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A163" t="s">
-        <v>58</v>
-      </c>
-      <c r="B163" t="s">
-        <v>22</v>
-      </c>
-      <c r="C163" t="s">
-        <v>18</v>
-      </c>
-      <c r="D163" t="s">
+      <c r="C164" t="s">
+        <v>36</v>
+      </c>
+      <c r="D164" t="s">
+        <v>11</v>
+      </c>
+      <c r="E164" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>57</v>
+      </c>
+      <c r="B165" t="s">
+        <v>13</v>
+      </c>
+      <c r="C165" t="s">
+        <v>23</v>
+      </c>
+      <c r="D165" t="s">
         <v>15</v>
       </c>
-      <c r="E163" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A164" t="s">
-        <v>58</v>
-      </c>
-      <c r="B164" t="s">
-        <v>35</v>
-      </c>
-      <c r="C164" t="s">
-        <v>7</v>
-      </c>
-      <c r="D164" t="s">
-        <v>19</v>
-      </c>
-      <c r="E164" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A165" t="s">
-        <v>58</v>
-      </c>
-      <c r="B165" t="s">
-        <v>49</v>
-      </c>
-      <c r="C165" t="s">
-        <v>23</v>
-      </c>
-      <c r="D165" t="s">
+      <c r="E165" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>57</v>
+      </c>
+      <c r="B166" t="s">
+        <v>29</v>
+      </c>
+      <c r="C166" t="s">
+        <v>14</v>
+      </c>
+      <c r="D166" t="s">
+        <v>8</v>
+      </c>
+      <c r="E166" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>57</v>
+      </c>
+      <c r="B167" t="s">
         <v>50</v>
-      </c>
-      <c r="E165" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A166" t="s">
-        <v>58</v>
-      </c>
-      <c r="B166" t="s">
-        <v>51</v>
-      </c>
-      <c r="C166" t="s">
-        <v>37</v>
-      </c>
-      <c r="D166" t="s">
-        <v>50</v>
-      </c>
-      <c r="E166" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A167" t="s">
-        <v>58</v>
-      </c>
-      <c r="B167" t="s">
-        <v>26</v>
       </c>
       <c r="C167" t="s">
         <v>18</v>
       </c>
       <c r="D167" t="s">
+        <v>58</v>
+      </c>
+      <c r="E167" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>57</v>
+      </c>
+      <c r="B168" t="s">
+        <v>16</v>
+      </c>
+      <c r="C168" t="s">
+        <v>36</v>
+      </c>
+      <c r="D168" t="s">
+        <v>8</v>
+      </c>
+      <c r="E168" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>57</v>
+      </c>
+      <c r="B169" t="s">
+        <v>10</v>
+      </c>
+      <c r="C169" t="s">
+        <v>36</v>
+      </c>
+      <c r="D169" t="s">
+        <v>19</v>
+      </c>
+      <c r="E169" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>57</v>
+      </c>
+      <c r="B170" t="s">
+        <v>10</v>
+      </c>
+      <c r="C170" t="s">
+        <v>7</v>
+      </c>
+      <c r="D170" t="s">
+        <v>21</v>
+      </c>
+      <c r="E170" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>57</v>
+      </c>
+      <c r="B171" t="s">
+        <v>22</v>
+      </c>
+      <c r="C171" t="s">
+        <v>18</v>
+      </c>
+      <c r="D171" t="s">
         <v>15</v>
       </c>
-      <c r="E167" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A168" t="s">
-        <v>58</v>
-      </c>
-      <c r="B168" t="s">
+      <c r="E171" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>57</v>
+      </c>
+      <c r="B172" t="s">
+        <v>34</v>
+      </c>
+      <c r="C172" t="s">
+        <v>7</v>
+      </c>
+      <c r="D172" t="s">
+        <v>19</v>
+      </c>
+      <c r="E172" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>57</v>
+      </c>
+      <c r="B173" t="s">
+        <v>48</v>
+      </c>
+      <c r="C173" t="s">
+        <v>23</v>
+      </c>
+      <c r="D173" t="s">
+        <v>49</v>
+      </c>
+      <c r="E173" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>57</v>
+      </c>
+      <c r="B174" t="s">
+        <v>50</v>
+      </c>
+      <c r="C174" t="s">
+        <v>36</v>
+      </c>
+      <c r="D174" t="s">
+        <v>49</v>
+      </c>
+      <c r="E174" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>57</v>
+      </c>
+      <c r="B175" t="s">
+        <v>25</v>
+      </c>
+      <c r="C175" t="s">
+        <v>18</v>
+      </c>
+      <c r="D175" t="s">
+        <v>15</v>
+      </c>
+      <c r="E175" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>57</v>
+      </c>
+      <c r="B176" t="s">
+        <v>30</v>
+      </c>
+      <c r="C176" t="s">
         <v>31</v>
       </c>
-      <c r="C168" t="s">
+      <c r="D176" t="s">
         <v>32</v>
-      </c>
-      <c r="D168" t="s">
-        <v>33</v>
-      </c>
-      <c r="E168" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A169" t="s">
-        <v>58</v>
-      </c>
-      <c r="B169" t="s">
-        <v>27</v>
-      </c>
-      <c r="C169" t="s">
-        <v>37</v>
-      </c>
-      <c r="D169" t="s">
-        <v>28</v>
-      </c>
-      <c r="E169" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A170" t="s">
-        <v>40</v>
-      </c>
-      <c r="B170" t="s">
-        <v>13</v>
-      </c>
-      <c r="C170" t="s">
-        <v>23</v>
-      </c>
-      <c r="D170" t="s">
-        <v>15</v>
-      </c>
-      <c r="E170" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A171" t="s">
-        <v>40</v>
-      </c>
-      <c r="B171" t="s">
-        <v>30</v>
-      </c>
-      <c r="C171" t="s">
-        <v>23</v>
-      </c>
-      <c r="D171" t="s">
-        <v>8</v>
-      </c>
-      <c r="E171" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A172" t="s">
-        <v>40</v>
-      </c>
-      <c r="B172" t="s">
-        <v>16</v>
-      </c>
-      <c r="C172" t="s">
-        <v>18</v>
-      </c>
-      <c r="D172" t="s">
-        <v>8</v>
-      </c>
-      <c r="E172" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A173" t="s">
-        <v>40</v>
-      </c>
-      <c r="B173" t="s">
-        <v>22</v>
-      </c>
-      <c r="C173" t="s">
-        <v>23</v>
-      </c>
-      <c r="D173" t="s">
-        <v>15</v>
-      </c>
-      <c r="E173" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A174" t="s">
-        <v>40</v>
-      </c>
-      <c r="B174" t="s">
-        <v>26</v>
-      </c>
-      <c r="C174" t="s">
-        <v>23</v>
-      </c>
-      <c r="D174" t="s">
-        <v>15</v>
-      </c>
-      <c r="E174" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A175" t="s">
-        <v>40</v>
-      </c>
-      <c r="B175" t="s">
-        <v>27</v>
-      </c>
-      <c r="C175" t="s">
-        <v>17</v>
-      </c>
-      <c r="D175" t="s">
-        <v>28</v>
-      </c>
-      <c r="E175" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A176" t="s">
-        <v>39</v>
-      </c>
-      <c r="B176" t="s">
-        <v>35</v>
-      </c>
-      <c r="C176" t="s">
-        <v>23</v>
-      </c>
-      <c r="D176" t="s">
-        <v>36</v>
       </c>
       <c r="E176" t="s">
         <v>12</v>
@@ -3569,16 +3620,16 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="B177" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C177" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D177" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E177" t="s">
         <v>12</v>
@@ -3589,13 +3640,13 @@
         <v>39</v>
       </c>
       <c r="B178" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C178" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D178" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E178" t="s">
         <v>12</v>
@@ -3606,7 +3657,7 @@
         <v>39</v>
       </c>
       <c r="B179" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C179" t="s">
         <v>23</v>
@@ -3623,13 +3674,13 @@
         <v>39</v>
       </c>
       <c r="B180" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C180" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D180" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E180" t="s">
         <v>12</v>
@@ -3640,13 +3691,13 @@
         <v>39</v>
       </c>
       <c r="B181" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C181" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D181" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E181" t="s">
         <v>12</v>
@@ -3657,7 +3708,7 @@
         <v>39</v>
       </c>
       <c r="B182" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C182" t="s">
         <v>23</v>
@@ -3671,16 +3722,16 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B183" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C183" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D183" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E183" t="s">
         <v>12</v>
@@ -3688,16 +3739,16 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B184" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C184" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D184" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E184" t="s">
         <v>12</v>
@@ -3705,33 +3756,33 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B185" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C185" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D185" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E185" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B186" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C186" t="s">
         <v>7</v>
       </c>
       <c r="D186" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E186" t="s">
         <v>12</v>
@@ -3739,16 +3790,16 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B187" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C187" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D187" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E187" t="s">
         <v>12</v>
@@ -3756,88 +3807,115 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>83</v>
+        <v>38</v>
+      </c>
+      <c r="B188" t="s">
+        <v>22</v>
+      </c>
+      <c r="C188" t="s">
+        <v>23</v>
+      </c>
+      <c r="D188" t="s">
+        <v>15</v>
+      </c>
+      <c r="E188" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="B189" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C189" t="s">
-        <v>18</v>
-      </c>
-      <c r="D189">
-        <v>2013</v>
+        <v>17</v>
+      </c>
+      <c r="D189" t="s">
+        <v>19</v>
+      </c>
+      <c r="E189" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="B190" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C190" t="s">
         <v>23</v>
       </c>
-      <c r="D190">
-        <v>2007</v>
+      <c r="D190" t="s">
+        <v>15</v>
+      </c>
+      <c r="E190" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="B191" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C191" t="s">
-        <v>20</v>
-      </c>
-      <c r="D191">
-        <v>2016</v>
+        <v>23</v>
+      </c>
+      <c r="D191" t="s">
+        <v>15</v>
+      </c>
+      <c r="E191" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="B192" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C192" t="s">
-        <v>18</v>
-      </c>
-      <c r="D192">
-        <v>2013</v>
+        <v>7</v>
+      </c>
+      <c r="D192" t="s">
+        <v>27</v>
+      </c>
+      <c r="E192" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="B193" t="s">
         <v>16</v>
       </c>
       <c r="C193" t="s">
-        <v>18</v>
-      </c>
-      <c r="D193">
-        <v>2007</v>
+        <v>17</v>
+      </c>
+      <c r="D193" t="s">
+        <v>8</v>
+      </c>
+      <c r="E193" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B194" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C194" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D194" t="s">
         <v>15</v>
@@ -3848,16 +3926,16 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B195" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C195" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D195" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E195" t="s">
         <v>12</v>
@@ -3865,98 +3943,74 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>46</v>
-      </c>
-      <c r="B196" t="s">
-        <v>27</v>
-      </c>
-      <c r="C196" t="s">
-        <v>14</v>
-      </c>
-      <c r="D196" t="s">
-        <v>28</v>
-      </c>
-      <c r="E196" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="B197" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C197" t="s">
-        <v>7</v>
-      </c>
-      <c r="D197" t="s">
-        <v>8</v>
-      </c>
-      <c r="E197" t="s">
-        <v>9</v>
+        <v>18</v>
+      </c>
+      <c r="D197">
+        <v>2013</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="B198" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C198" t="s">
         <v>23</v>
       </c>
-      <c r="D198" t="s">
-        <v>15</v>
-      </c>
-      <c r="E198" t="s">
-        <v>12</v>
+      <c r="D198">
+        <v>2007</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="B199" t="s">
         <v>26</v>
       </c>
       <c r="C199" t="s">
-        <v>23</v>
-      </c>
-      <c r="D199" t="s">
-        <v>15</v>
-      </c>
-      <c r="E199" t="s">
-        <v>12</v>
+        <v>20</v>
+      </c>
+      <c r="D199">
+        <v>2016</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="B200" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C200" t="s">
-        <v>47</v>
-      </c>
-      <c r="D200" t="s">
-        <v>33</v>
-      </c>
-      <c r="E200" t="s">
-        <v>12</v>
+        <v>18</v>
+      </c>
+      <c r="D200">
+        <v>2013</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B201" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C201" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D201">
         <v>2007</v>
@@ -3964,7 +4018,7 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="B202" t="s">
         <v>13</v>
@@ -3972,75 +4026,90 @@
       <c r="C202" t="s">
         <v>18</v>
       </c>
-      <c r="D202">
-        <v>2013</v>
+      <c r="D202" t="s">
+        <v>15</v>
+      </c>
+      <c r="E202" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="B203" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C203" t="s">
-        <v>7</v>
-      </c>
-      <c r="D203">
-        <v>2007</v>
+        <v>17</v>
+      </c>
+      <c r="D203" t="s">
+        <v>8</v>
+      </c>
+      <c r="E203" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="B204" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C204" t="s">
         <v>14</v>
       </c>
-      <c r="D204">
-        <v>2007</v>
+      <c r="D204" t="s">
+        <v>27</v>
+      </c>
+      <c r="E204" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="B205" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C205" t="s">
-        <v>18</v>
-      </c>
-      <c r="D205">
-        <v>2013</v>
+        <v>7</v>
+      </c>
+      <c r="D205" t="s">
+        <v>8</v>
+      </c>
+      <c r="E205" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="B206" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C206" t="s">
         <v>23</v>
       </c>
-      <c r="D206">
-        <v>2007</v>
+      <c r="D206" t="s">
+        <v>15</v>
+      </c>
+      <c r="E206" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B207" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C207" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D207" t="s">
         <v>15</v>
@@ -4051,16 +4120,16 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B208" t="s">
         <v>30</v>
       </c>
       <c r="C208" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="D208" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="E208" t="s">
         <v>12</v>
@@ -4068,182 +4137,185 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>44</v>
+        <v>97</v>
       </c>
       <c r="B209" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C209" t="s">
-        <v>20</v>
-      </c>
-      <c r="D209" t="s">
-        <v>28</v>
-      </c>
-      <c r="E209" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="D209">
+        <v>2007</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>44</v>
+        <v>97</v>
       </c>
       <c r="B210" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C210" t="s">
-        <v>17</v>
-      </c>
-      <c r="D210" t="s">
-        <v>8</v>
-      </c>
-      <c r="E210" t="s">
-        <v>12</v>
+        <v>18</v>
+      </c>
+      <c r="D210">
+        <v>2013</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>44</v>
+        <v>97</v>
       </c>
       <c r="B211" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C211" t="s">
-        <v>23</v>
-      </c>
-      <c r="D211" t="s">
-        <v>15</v>
-      </c>
-      <c r="E211" t="s">
-        <v>12</v>
+        <v>7</v>
+      </c>
+      <c r="D211">
+        <v>2007</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="B212" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C212" t="s">
-        <v>23</v>
-      </c>
-      <c r="D212" t="s">
-        <v>15</v>
-      </c>
-      <c r="E212" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="D212">
+        <v>2007</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>141</v>
+        <v>98</v>
       </c>
       <c r="B213" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C213" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D213">
-        <v>2007</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>141</v>
+        <v>98</v>
       </c>
       <c r="B214" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C214" t="s">
         <v>23</v>
       </c>
       <c r="D214">
-        <v>2013</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>141</v>
+        <v>43</v>
       </c>
       <c r="B215" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C215" t="s">
-        <v>18</v>
-      </c>
-      <c r="D215">
-        <v>2007</v>
+        <v>14</v>
+      </c>
+      <c r="D215" t="s">
+        <v>15</v>
+      </c>
+      <c r="E215" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="B216" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C216" t="s">
-        <v>18</v>
-      </c>
-      <c r="D216">
-        <v>2007</v>
+        <v>14</v>
+      </c>
+      <c r="D216" t="s">
+        <v>8</v>
+      </c>
+      <c r="E216" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="B217" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C217" t="s">
-        <v>23</v>
-      </c>
-      <c r="D217">
-        <v>2013</v>
+        <v>20</v>
+      </c>
+      <c r="D217" t="s">
+        <v>27</v>
+      </c>
+      <c r="E217" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="B218" t="s">
         <v>16</v>
       </c>
       <c r="C218" t="s">
-        <v>37</v>
-      </c>
-      <c r="D218">
-        <v>2007</v>
+        <v>17</v>
+      </c>
+      <c r="D218" t="s">
+        <v>8</v>
+      </c>
+      <c r="E218" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="B219" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C219" t="s">
-        <v>17</v>
-      </c>
-      <c r="D219">
-        <v>2016</v>
+        <v>23</v>
+      </c>
+      <c r="D219" t="s">
+        <v>15</v>
+      </c>
+      <c r="E219" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="B220" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C220" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="D220" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E220" t="s">
         <v>12</v>
@@ -4251,135 +4323,114 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="B221" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C221" t="s">
-        <v>7</v>
-      </c>
-      <c r="D221" t="s">
-        <v>15</v>
-      </c>
-      <c r="E221" t="s">
-        <v>12</v>
+        <v>23</v>
+      </c>
+      <c r="D221">
+        <v>2007</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="B222" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C222" t="s">
-        <v>17</v>
-      </c>
-      <c r="D222" t="s">
-        <v>8</v>
-      </c>
-      <c r="E222" t="s">
-        <v>12</v>
+        <v>23</v>
+      </c>
+      <c r="D222">
+        <v>2013</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="B223" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="C223" t="s">
-        <v>17</v>
-      </c>
-      <c r="D223" t="s">
-        <v>54</v>
-      </c>
-      <c r="E223" t="s">
-        <v>12</v>
+        <v>18</v>
+      </c>
+      <c r="D223">
+        <v>2007</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="B224" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="C224" t="s">
         <v>18</v>
       </c>
-      <c r="D224" t="s">
-        <v>36</v>
-      </c>
-      <c r="E224" t="s">
-        <v>12</v>
+      <c r="D224">
+        <v>2007</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="B225" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C225" t="s">
-        <v>17</v>
-      </c>
-      <c r="D225" t="s">
-        <v>28</v>
-      </c>
-      <c r="E225" t="s">
-        <v>12</v>
+        <v>23</v>
+      </c>
+      <c r="D225">
+        <v>2013</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="B226" t="s">
         <v>16</v>
       </c>
       <c r="C226" t="s">
-        <v>7</v>
-      </c>
-      <c r="D226" t="s">
-        <v>8</v>
-      </c>
-      <c r="E226" t="s">
-        <v>9</v>
+        <v>36</v>
+      </c>
+      <c r="D226">
+        <v>2007</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="B227" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C227" t="s">
         <v>17</v>
       </c>
-      <c r="D227" t="s">
-        <v>15</v>
-      </c>
-      <c r="E227" t="s">
-        <v>12</v>
+      <c r="D227">
+        <v>2016</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B228" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="C228" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="D228" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="E228" t="s">
         <v>12</v>
@@ -4387,16 +4438,16 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B229" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="C229" t="s">
         <v>7</v>
       </c>
       <c r="D229" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E229" t="s">
         <v>12</v>
@@ -4404,16 +4455,16 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B230" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C230" t="s">
         <v>17</v>
       </c>
       <c r="D230" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E230" t="s">
         <v>12</v>
@@ -4421,16 +4472,16 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B231" t="s">
+        <v>52</v>
+      </c>
+      <c r="C231" t="s">
+        <v>17</v>
+      </c>
+      <c r="D231" t="s">
         <v>53</v>
-      </c>
-      <c r="C231" t="s">
-        <v>7</v>
-      </c>
-      <c r="D231" t="s">
-        <v>61</v>
       </c>
       <c r="E231" t="s">
         <v>12</v>
@@ -4438,139 +4489,163 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>130</v>
+        <v>59</v>
       </c>
       <c r="B232" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="C232" t="s">
-        <v>37</v>
-      </c>
-      <c r="D232">
-        <v>2007</v>
+        <v>18</v>
+      </c>
+      <c r="D232" t="s">
+        <v>35</v>
+      </c>
+      <c r="E232" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>130</v>
+        <v>59</v>
       </c>
       <c r="B233" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C233" t="s">
-        <v>43</v>
-      </c>
-      <c r="D233">
-        <v>2013</v>
+        <v>17</v>
+      </c>
+      <c r="D233" t="s">
+        <v>27</v>
+      </c>
+      <c r="E233" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>131</v>
+        <v>59</v>
       </c>
       <c r="B234" t="s">
         <v>16</v>
       </c>
       <c r="C234" t="s">
-        <v>37</v>
-      </c>
-      <c r="D234">
-        <v>2007</v>
+        <v>7</v>
+      </c>
+      <c r="D234" t="s">
+        <v>8</v>
+      </c>
+      <c r="E234" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>131</v>
+        <v>59</v>
       </c>
       <c r="B235" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C235" t="s">
-        <v>43</v>
-      </c>
-      <c r="D235">
-        <v>2013</v>
+        <v>17</v>
+      </c>
+      <c r="D235" t="s">
+        <v>15</v>
+      </c>
+      <c r="E235" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="B236" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="C236" t="s">
-        <v>20</v>
-      </c>
-      <c r="D236">
-        <v>2016</v>
+        <v>17</v>
+      </c>
+      <c r="D236" t="s">
+        <v>49</v>
+      </c>
+      <c r="E236" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>129</v>
+        <v>59</v>
       </c>
       <c r="B237" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C237" t="s">
-        <v>23</v>
-      </c>
-      <c r="D237">
-        <v>2007</v>
+        <v>7</v>
+      </c>
+      <c r="D237" t="s">
+        <v>49</v>
+      </c>
+      <c r="E237" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>129</v>
+        <v>59</v>
       </c>
       <c r="B238" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C238" t="s">
-        <v>23</v>
-      </c>
-      <c r="D238">
-        <v>2013</v>
+        <v>17</v>
+      </c>
+      <c r="D238" t="s">
+        <v>15</v>
+      </c>
+      <c r="E238" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="B239" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="C239" t="s">
-        <v>23</v>
-      </c>
-      <c r="D239">
-        <v>2007</v>
+        <v>7</v>
+      </c>
+      <c r="D239" t="s">
+        <v>60</v>
+      </c>
+      <c r="E239" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="B240" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C240" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="D240">
-        <v>2016</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="B241" t="s">
         <v>13</v>
       </c>
       <c r="C241" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D241">
         <v>2013</v>
@@ -4578,13 +4653,13 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="B242" t="s">
         <v>16</v>
       </c>
       <c r="C242" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D242">
         <v>2007</v>
@@ -4592,41 +4667,41 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="B243" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C243" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D243">
-        <v>2007</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="B244" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C244" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D244">
-        <v>2013</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="B245" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C245" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D245">
         <v>2007</v>
@@ -4634,69 +4709,69 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="B246" t="s">
-        <v>31</v>
-      </c>
-      <c r="C246">
-        <v>3</v>
+        <v>13</v>
+      </c>
+      <c r="C246" t="s">
+        <v>23</v>
       </c>
       <c r="D246">
-        <v>1998</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B247" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C247" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D247">
-        <v>2016</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B248" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C248" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D248">
-        <v>2013</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B249" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C249" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D249">
-        <v>2007</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B250" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C250" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D250">
         <v>2007</v>
@@ -4704,83 +4779,83 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B251" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C251" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D251">
-        <v>2005</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B252" t="s">
-        <v>31</v>
-      </c>
-      <c r="C252">
-        <v>3</v>
+        <v>13</v>
+      </c>
+      <c r="C252" t="s">
+        <v>14</v>
       </c>
       <c r="D252">
-        <v>1998</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B253" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C253" t="s">
         <v>14</v>
       </c>
       <c r="D253">
-        <v>2016</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B254" t="s">
-        <v>6</v>
-      </c>
-      <c r="C254" t="s">
-        <v>18</v>
+        <v>30</v>
+      </c>
+      <c r="C254">
+        <v>3</v>
       </c>
       <c r="D254">
-        <v>2007</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B255" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C255" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D255">
-        <v>2010</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B256" t="s">
         <v>13</v>
       </c>
       <c r="C256" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D256">
         <v>2013</v>
@@ -4788,13 +4863,13 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B257" t="s">
         <v>16</v>
       </c>
       <c r="C257" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D257">
         <v>2007</v>
@@ -4802,69 +4877,69 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B258" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C258" t="s">
         <v>7</v>
       </c>
       <c r="D258">
-        <v>2000</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B259" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="C259" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D259">
-        <v>2016</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="B260" t="s">
         <v>30</v>
       </c>
-      <c r="C260" t="s">
-        <v>14</v>
+      <c r="C260">
+        <v>3</v>
       </c>
       <c r="D260">
-        <v>2007</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="B261" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C261" t="s">
         <v>14</v>
       </c>
       <c r="D261">
-        <v>2013</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="B262" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C262" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D262">
         <v>2007</v>
@@ -4872,55 +4947,55 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="B263" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="C263" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D263">
-        <v>2006</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="B264" t="s">
-        <v>31</v>
-      </c>
-      <c r="C264">
-        <v>3</v>
+        <v>10</v>
+      </c>
+      <c r="C264" t="s">
+        <v>18</v>
       </c>
       <c r="D264">
-        <v>1998</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="B265" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C265" t="s">
         <v>14</v>
       </c>
       <c r="D265">
-        <v>2016</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="B266" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C266" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D266">
         <v>2007</v>
@@ -4928,41 +5003,41 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="B267" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C267" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D267">
-        <v>2013</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B268" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C268" t="s">
         <v>14</v>
       </c>
       <c r="D268">
-        <v>2007</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B269" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C269" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D269">
         <v>2007</v>
@@ -4970,7 +5045,7 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B270" t="s">
         <v>13</v>
@@ -4984,13 +5059,13 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B271" t="s">
         <v>16</v>
       </c>
       <c r="C271" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D271">
         <v>2007</v>
@@ -4998,85 +5073,94 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B272" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C272" t="s">
         <v>23</v>
       </c>
       <c r="D272">
-        <v>2007</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B273" t="s">
-        <v>13</v>
-      </c>
-      <c r="C273" t="s">
-        <v>23</v>
+        <v>30</v>
+      </c>
+      <c r="C273">
+        <v>3</v>
       </c>
       <c r="D273">
-        <v>2013</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B274" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C274" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D274">
-        <v>2007</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>116</v>
+        <v>113</v>
+      </c>
+      <c r="B275" t="s">
+        <v>6</v>
+      </c>
+      <c r="C275" t="s">
+        <v>18</v>
+      </c>
+      <c r="D275">
+        <v>2007</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B276" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C276" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D276">
-        <v>2016</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B277" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C277" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D277">
-        <v>2013</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="B278" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C278" t="s">
         <v>23</v>
@@ -5087,27 +5171,27 @@
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B279" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C279" t="s">
         <v>14</v>
       </c>
       <c r="D279">
-        <v>2016</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B280" t="s">
         <v>16</v>
       </c>
       <c r="C280" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D280">
         <v>2007</v>
@@ -5115,153 +5199,144 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="B281" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C281" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D281">
-        <v>2013</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B282" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C282" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D282">
-        <v>2016</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="B283" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C283" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="D283">
-        <v>2013</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>138</v>
-      </c>
-      <c r="B284" t="s">
-        <v>16</v>
-      </c>
-      <c r="C284" t="s">
-        <v>17</v>
-      </c>
-      <c r="D284">
-        <v>2007</v>
+        <v>115</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="B285" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C285" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D285">
-        <v>2007</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="B286" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C286" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D286">
-        <v>2016</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="B287" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C287" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D287">
-        <v>2013</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="B288" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C288" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="D288">
-        <v>2007</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>66</v>
+        <v>136</v>
       </c>
       <c r="B289" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C289" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D289">
-        <v>2005</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>66</v>
+        <v>136</v>
       </c>
       <c r="B290" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C290" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D290">
-        <v>2007</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>66</v>
+        <v>123</v>
       </c>
       <c r="B291" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C291" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D291">
         <v>2016</v>
@@ -5269,13 +5344,13 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="B292" t="s">
         <v>13</v>
       </c>
       <c r="C292" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D292">
         <v>2013</v>
@@ -5283,27 +5358,27 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="B293" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C293" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D293">
-        <v>2010</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="B294" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="C294" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D294">
         <v>2007</v>
@@ -5311,41 +5386,41 @@
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="B295" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C295" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D295">
-        <v>2007</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="B296" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C296" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D296">
-        <v>2000</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="B297" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C297" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D297">
         <v>2007</v>
@@ -5353,175 +5428,175 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B298" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="C298" t="s">
-        <v>139</v>
+        <v>23</v>
       </c>
       <c r="D298">
-        <v>1998</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B299" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C299" t="s">
         <v>14</v>
       </c>
       <c r="D299">
-        <v>2016</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B300" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C300" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D300">
-        <v>2013</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B301" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C301" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D301">
-        <v>2007</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B302" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="C302" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D302">
-        <v>2016</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="B303" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="C303" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D303">
-        <v>2010</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="B304" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C304" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D304">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="B305" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C305" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D305">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="B306" t="s">
         <v>10</v>
       </c>
       <c r="C306" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D306">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="B307" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C307" t="s">
         <v>17</v>
       </c>
       <c r="D307">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="B308" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="C308" t="s">
-        <v>7</v>
+        <v>138</v>
       </c>
       <c r="D308">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="B309" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C309" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D309">
         <v>2016</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="B310" t="s">
         <v>13</v>
@@ -5533,414 +5608,399 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="B311" t="s">
         <v>16</v>
       </c>
       <c r="C311" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D311">
         <v>2007</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+      <c r="B312" t="s">
+        <v>26</v>
+      </c>
+      <c r="C312" t="s">
+        <v>17</v>
+      </c>
+      <c r="D312">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+      <c r="B313" t="s">
+        <v>34</v>
+      </c>
+      <c r="C313" t="s">
+        <v>17</v>
+      </c>
+      <c r="D313">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B314" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C314" t="s">
         <v>23</v>
       </c>
       <c r="D314">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B315" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C315" t="s">
+        <v>20</v>
+      </c>
+      <c r="D315">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>88</v>
+      </c>
+      <c r="B316" t="s">
+        <v>10</v>
+      </c>
+      <c r="C316" t="s">
         <v>7</v>
       </c>
-      <c r="D315">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A316" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D316">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="B317" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C317" t="s">
-        <v>37</v>
-      </c>
-      <c r="D317" t="s">
-        <v>36</v>
-      </c>
-      <c r="E317" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="D317">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="B318" t="s">
         <v>6</v>
       </c>
       <c r="C318" t="s">
-        <v>37</v>
-      </c>
-      <c r="D318" t="s">
+        <v>7</v>
+      </c>
+      <c r="D318">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>88</v>
+      </c>
+      <c r="B319" t="s">
+        <v>6</v>
+      </c>
+      <c r="C319" t="s">
+        <v>42</v>
+      </c>
+      <c r="D319">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>89</v>
+      </c>
+      <c r="B320" t="s">
+        <v>26</v>
+      </c>
+      <c r="C320" t="s">
+        <v>20</v>
+      </c>
+      <c r="D320">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>89</v>
+      </c>
+      <c r="B321" t="s">
+        <v>13</v>
+      </c>
+      <c r="C321" t="s">
+        <v>23</v>
+      </c>
+      <c r="D321">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>89</v>
+      </c>
+      <c r="B322" t="s">
+        <v>16</v>
+      </c>
+      <c r="C322" t="s">
+        <v>14</v>
+      </c>
+      <c r="D322">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>93</v>
+      </c>
+      <c r="B325" t="s">
+        <v>13</v>
+      </c>
+      <c r="C325" t="s">
+        <v>23</v>
+      </c>
+      <c r="D325">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>93</v>
+      </c>
+      <c r="B326" t="s">
+        <v>16</v>
+      </c>
+      <c r="C326" t="s">
+        <v>7</v>
+      </c>
+      <c r="D326">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>47</v>
+      </c>
+      <c r="B328" t="s">
+        <v>34</v>
+      </c>
+      <c r="C328" t="s">
+        <v>36</v>
+      </c>
+      <c r="D328" t="s">
+        <v>35</v>
+      </c>
+      <c r="E328" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>47</v>
+      </c>
+      <c r="B329" t="s">
+        <v>6</v>
+      </c>
+      <c r="C329" t="s">
+        <v>36</v>
+      </c>
+      <c r="D329" t="s">
         <v>8</v>
       </c>
-      <c r="E318" t="s">
+      <c r="E329" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A319" t="s">
-        <v>48</v>
-      </c>
-      <c r="B319" t="s">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>47</v>
+      </c>
+      <c r="B330" t="s">
+        <v>6</v>
+      </c>
+      <c r="C330" t="s">
+        <v>36</v>
+      </c>
+      <c r="D330">
+        <v>2013</v>
+      </c>
+      <c r="F330" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>47</v>
+      </c>
+      <c r="B331" t="s">
         <v>10</v>
       </c>
-      <c r="C319" t="s">
+      <c r="C331" t="s">
         <v>18</v>
       </c>
-      <c r="D319" t="s">
+      <c r="D331" t="s">
         <v>11</v>
       </c>
-      <c r="E319" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A320" t="s">
-        <v>48</v>
-      </c>
-      <c r="B320" t="s">
-        <v>13</v>
-      </c>
-      <c r="C320" t="s">
-        <v>37</v>
-      </c>
-      <c r="D320" t="s">
-        <v>15</v>
-      </c>
-      <c r="E320" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A321" t="s">
-        <v>48</v>
-      </c>
-      <c r="B321" t="s">
-        <v>30</v>
-      </c>
-      <c r="C321" t="s">
-        <v>14</v>
-      </c>
-      <c r="D321" t="s">
-        <v>8</v>
-      </c>
-      <c r="E321" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A322" t="s">
-        <v>48</v>
-      </c>
-      <c r="B322" t="s">
-        <v>27</v>
-      </c>
-      <c r="C322" t="s">
-        <v>18</v>
-      </c>
-      <c r="D322" t="s">
-        <v>28</v>
-      </c>
-      <c r="E322" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A323" t="s">
-        <v>48</v>
-      </c>
-      <c r="B323" t="s">
-        <v>16</v>
-      </c>
-      <c r="C323" t="s">
-        <v>18</v>
-      </c>
-      <c r="D323" t="s">
-        <v>8</v>
-      </c>
-      <c r="E323" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A324" t="s">
-        <v>48</v>
-      </c>
-      <c r="B324" t="s">
-        <v>10</v>
-      </c>
-      <c r="C324" t="s">
-        <v>37</v>
-      </c>
-      <c r="D324" t="s">
-        <v>19</v>
-      </c>
-      <c r="E324" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A325" t="s">
-        <v>48</v>
-      </c>
-      <c r="B325" t="s">
-        <v>10</v>
-      </c>
-      <c r="C325" t="s">
-        <v>14</v>
-      </c>
-      <c r="D325" t="s">
-        <v>21</v>
-      </c>
-      <c r="E325" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A326" t="s">
-        <v>48</v>
-      </c>
-      <c r="B326" t="s">
-        <v>22</v>
-      </c>
-      <c r="C326" t="s">
-        <v>18</v>
-      </c>
-      <c r="D326" t="s">
-        <v>15</v>
-      </c>
-      <c r="E326" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A327" t="s">
-        <v>48</v>
-      </c>
-      <c r="B327" t="s">
-        <v>35</v>
-      </c>
-      <c r="C327" t="s">
-        <v>37</v>
-      </c>
-      <c r="D327" t="s">
-        <v>19</v>
-      </c>
-      <c r="E327" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A328" t="s">
-        <v>48</v>
-      </c>
-      <c r="B328" t="s">
-        <v>49</v>
-      </c>
-      <c r="C328" t="s">
-        <v>37</v>
-      </c>
-      <c r="D328" t="s">
-        <v>50</v>
-      </c>
-      <c r="E328" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A329" t="s">
-        <v>48</v>
-      </c>
-      <c r="B329" t="s">
-        <v>51</v>
-      </c>
-      <c r="C329" t="s">
-        <v>7</v>
-      </c>
-      <c r="D329" t="s">
-        <v>50</v>
-      </c>
-      <c r="E329" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A330" t="s">
-        <v>48</v>
-      </c>
-      <c r="B330" t="s">
-        <v>26</v>
-      </c>
-      <c r="C330" t="s">
-        <v>18</v>
-      </c>
-      <c r="D330" t="s">
-        <v>15</v>
-      </c>
-      <c r="E330" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A331" t="s">
-        <v>48</v>
-      </c>
-      <c r="B331" t="s">
-        <v>31</v>
-      </c>
-      <c r="C331" t="s">
-        <v>32</v>
-      </c>
-      <c r="D331" t="s">
-        <v>33</v>
-      </c>
       <c r="E331" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="B332" t="s">
         <v>13</v>
       </c>
       <c r="C332" t="s">
-        <v>17</v>
-      </c>
-      <c r="D332">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="D332" t="s">
+        <v>15</v>
+      </c>
+      <c r="E332" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="B333" t="s">
+        <v>29</v>
+      </c>
+      <c r="C333" t="s">
+        <v>14</v>
+      </c>
+      <c r="D333" t="s">
+        <v>8</v>
+      </c>
+      <c r="E333" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>47</v>
+      </c>
+      <c r="B334" t="s">
+        <v>26</v>
+      </c>
+      <c r="C334" t="s">
+        <v>18</v>
+      </c>
+      <c r="D334" t="s">
+        <v>27</v>
+      </c>
+      <c r="E334" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>47</v>
+      </c>
+      <c r="B335" t="s">
         <v>16</v>
-      </c>
-      <c r="C333" t="s">
-        <v>37</v>
-      </c>
-      <c r="D333">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A334" t="s">
-        <v>96</v>
-      </c>
-      <c r="B334" t="s">
-        <v>13</v>
-      </c>
-      <c r="C334" t="s">
-        <v>37</v>
-      </c>
-      <c r="D334">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A335" t="s">
-        <v>97</v>
-      </c>
-      <c r="B335" t="s">
-        <v>30</v>
       </c>
       <c r="C335" t="s">
         <v>18</v>
       </c>
-      <c r="D335">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D335" t="s">
+        <v>8</v>
+      </c>
+      <c r="E335" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="B336" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C336" t="s">
-        <v>37</v>
-      </c>
-      <c r="D336">
-        <v>2013</v>
+        <v>36</v>
+      </c>
+      <c r="D336" t="s">
+        <v>19</v>
+      </c>
+      <c r="E336" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="B337" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C337" t="s">
-        <v>37</v>
-      </c>
-      <c r="D337">
-        <v>2007</v>
+        <v>14</v>
+      </c>
+      <c r="D337" t="s">
+        <v>21</v>
+      </c>
+      <c r="E337" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B338" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C338" t="s">
         <v>18</v>
       </c>
       <c r="D338" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E338" t="s">
         <v>12</v>
@@ -5948,16 +6008,16 @@
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B339" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C339" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D339" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E339" t="s">
         <v>12</v>
@@ -5965,16 +6025,16 @@
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B340" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="C340" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D340" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="E340" t="s">
         <v>12</v>
@@ -5982,16 +6042,16 @@
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B341" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C341" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D341" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="E341" t="s">
         <v>12</v>
@@ -5999,16 +6059,16 @@
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B342" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C342" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="D342" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E342" t="s">
         <v>12</v>
@@ -6016,16 +6076,16 @@
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B343" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C343" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D343" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="E343" t="s">
         <v>12</v>
@@ -6033,89 +6093,83 @@
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="B344" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C344" t="s">
-        <v>37</v>
-      </c>
-      <c r="D344" t="s">
-        <v>15</v>
-      </c>
-      <c r="E344" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="D344">
+        <v>2013</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="B345" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C345" t="s">
-        <v>37</v>
-      </c>
-      <c r="D345" t="s">
-        <v>15</v>
-      </c>
-      <c r="E345" t="s">
-        <v>12</v>
+        <v>36</v>
+      </c>
+      <c r="D345">
+        <v>2007</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="B346" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C346" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D346">
-        <v>2016</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="B347" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C347" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D347">
-        <v>2013</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="B348" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C348" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D348">
-        <v>2007</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B349" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C349" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D349">
         <v>2007</v>
@@ -6123,96 +6177,1282 @@
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>106</v>
+        <v>41</v>
       </c>
       <c r="B350" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C350" t="s">
-        <v>14</v>
-      </c>
-      <c r="D350">
-        <v>2013</v>
+        <v>18</v>
+      </c>
+      <c r="D350" t="s">
+        <v>8</v>
+      </c>
+      <c r="E350" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>106</v>
+        <v>41</v>
       </c>
       <c r="B351" t="s">
         <v>6</v>
       </c>
       <c r="C351" t="s">
-        <v>140</v>
+        <v>42</v>
       </c>
       <c r="D351">
-        <v>2007</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
+        <v>41</v>
+      </c>
+      <c r="B352" t="s">
+        <v>10</v>
+      </c>
+      <c r="C352" t="s">
+        <v>42</v>
+      </c>
+      <c r="D352" t="s">
+        <v>11</v>
+      </c>
+      <c r="E352" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>41</v>
+      </c>
+      <c r="B353" t="s">
+        <v>13</v>
+      </c>
+      <c r="C353" t="s">
+        <v>36</v>
+      </c>
+      <c r="D353" t="s">
+        <v>15</v>
+      </c>
+      <c r="E353" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>41</v>
+      </c>
+      <c r="B354" t="s">
+        <v>29</v>
+      </c>
+      <c r="C354" t="s">
+        <v>18</v>
+      </c>
+      <c r="D354" t="s">
+        <v>8</v>
+      </c>
+      <c r="E354" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>41</v>
+      </c>
+      <c r="B355" t="s">
+        <v>26</v>
+      </c>
+      <c r="C355" t="s">
+        <v>36</v>
+      </c>
+      <c r="D355" t="s">
+        <v>27</v>
+      </c>
+      <c r="E355" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>41</v>
+      </c>
+      <c r="B356" t="s">
+        <v>16</v>
+      </c>
+      <c r="C356" t="s">
+        <v>36</v>
+      </c>
+      <c r="D356" t="s">
+        <v>8</v>
+      </c>
+      <c r="E356" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>41</v>
+      </c>
+      <c r="B357" t="s">
+        <v>22</v>
+      </c>
+      <c r="C357" t="s">
+        <v>36</v>
+      </c>
+      <c r="D357" t="s">
+        <v>15</v>
+      </c>
+      <c r="E357" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>41</v>
+      </c>
+      <c r="B358" t="s">
+        <v>25</v>
+      </c>
+      <c r="C358" t="s">
+        <v>36</v>
+      </c>
+      <c r="D358" t="s">
+        <v>15</v>
+      </c>
+      <c r="E358" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>117</v>
+      </c>
+      <c r="B359" t="s">
+        <v>26</v>
+      </c>
+      <c r="C359" t="s">
+        <v>17</v>
+      </c>
+      <c r="D359">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>117</v>
+      </c>
+      <c r="B360" t="s">
+        <v>13</v>
+      </c>
+      <c r="C360" t="s">
+        <v>23</v>
+      </c>
+      <c r="D360">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>117</v>
+      </c>
+      <c r="B361" t="s">
+        <v>16</v>
+      </c>
+      <c r="C361" t="s">
+        <v>23</v>
+      </c>
+      <c r="D361">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>105</v>
+      </c>
+      <c r="B362" t="s">
+        <v>29</v>
+      </c>
+      <c r="C362" t="s">
+        <v>14</v>
+      </c>
+      <c r="D362">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>105</v>
+      </c>
+      <c r="B363" t="s">
+        <v>13</v>
+      </c>
+      <c r="C363" t="s">
+        <v>14</v>
+      </c>
+      <c r="D363">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>105</v>
+      </c>
+      <c r="B364" t="s">
+        <v>6</v>
+      </c>
+      <c r="C364" t="s">
+        <v>139</v>
+      </c>
+      <c r="D364">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>105</v>
+      </c>
+      <c r="B365" t="s">
+        <v>16</v>
+      </c>
+      <c r="C365" t="s">
+        <v>14</v>
+      </c>
+      <c r="D365">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>118</v>
+      </c>
+      <c r="B366" t="s">
+        <v>29</v>
+      </c>
+      <c r="C366" t="s">
+        <v>23</v>
+      </c>
+      <c r="D366">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>118</v>
+      </c>
+      <c r="B367" t="s">
+        <v>13</v>
+      </c>
+      <c r="C367" t="s">
+        <v>14</v>
+      </c>
+      <c r="D367">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>118</v>
+      </c>
+      <c r="B368" t="s">
+        <v>16</v>
+      </c>
+      <c r="C368" t="s">
+        <v>14</v>
+      </c>
+      <c r="D368">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>79</v>
+      </c>
+      <c r="B370" t="s">
+        <v>142</v>
+      </c>
+      <c r="C370" t="s">
+        <v>17</v>
+      </c>
+      <c r="D370">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>80</v>
+      </c>
+      <c r="B371" t="s">
+        <v>142</v>
+      </c>
+      <c r="C371" t="s">
+        <v>17</v>
+      </c>
+      <c r="D371">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>71</v>
+      </c>
+      <c r="B372" t="s">
+        <v>142</v>
+      </c>
+      <c r="C372" t="s">
+        <v>17</v>
+      </c>
+      <c r="D372">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>57</v>
+      </c>
+      <c r="B373" t="s">
+        <v>142</v>
+      </c>
+      <c r="C373" t="s">
+        <v>36</v>
+      </c>
+      <c r="D373">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>127</v>
+      </c>
+      <c r="B374" t="s">
+        <v>142</v>
+      </c>
+      <c r="C374" t="s">
+        <v>7</v>
+      </c>
+      <c r="D374">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>54</v>
+      </c>
+      <c r="B375" t="s">
+        <v>142</v>
+      </c>
+      <c r="C375" t="s">
+        <v>18</v>
+      </c>
+      <c r="D375">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>51</v>
+      </c>
+      <c r="B376" t="s">
+        <v>142</v>
+      </c>
+      <c r="C376" t="s">
+        <v>17</v>
+      </c>
+      <c r="D376">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>143</v>
+      </c>
+      <c r="B377" t="s">
+        <v>142</v>
+      </c>
+      <c r="C377" t="s">
+        <v>23</v>
+      </c>
+      <c r="D377">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>144</v>
+      </c>
+      <c r="B378" t="s">
+        <v>142</v>
+      </c>
+      <c r="C378" t="s">
+        <v>14</v>
+      </c>
+      <c r="D378">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>145</v>
+      </c>
+      <c r="B379" t="s">
+        <v>142</v>
+      </c>
+      <c r="C379" t="s">
+        <v>14</v>
+      </c>
+      <c r="D379">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>146</v>
+      </c>
+      <c r="B380" t="s">
+        <v>142</v>
+      </c>
+      <c r="C380" t="s">
+        <v>14</v>
+      </c>
+      <c r="D380">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>147</v>
+      </c>
+      <c r="B381" t="s">
+        <v>142</v>
+      </c>
+      <c r="C381" t="s">
+        <v>23</v>
+      </c>
+      <c r="D381">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>65</v>
+      </c>
+      <c r="B382" t="s">
+        <v>142</v>
+      </c>
+      <c r="C382" t="s">
+        <v>14</v>
+      </c>
+      <c r="D382">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>66</v>
+      </c>
+      <c r="B383" t="s">
+        <v>142</v>
+      </c>
+      <c r="C383" t="s">
+        <v>17</v>
+      </c>
+      <c r="D383">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>64</v>
+      </c>
+      <c r="B384" t="s">
+        <v>142</v>
+      </c>
+      <c r="C384" t="s">
+        <v>14</v>
+      </c>
+      <c r="D384">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>148</v>
+      </c>
+      <c r="B385" t="s">
+        <v>142</v>
+      </c>
+      <c r="C385" t="s">
+        <v>14</v>
+      </c>
+      <c r="D385">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>86</v>
+      </c>
+      <c r="B386" t="s">
+        <v>142</v>
+      </c>
+      <c r="C386" t="s">
+        <v>23</v>
+      </c>
+      <c r="D386">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>59</v>
+      </c>
+      <c r="B387" t="s">
+        <v>142</v>
+      </c>
+      <c r="C387" t="s">
+        <v>17</v>
+      </c>
+      <c r="D387">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>56</v>
+      </c>
+      <c r="B388" t="s">
+        <v>142</v>
+      </c>
+      <c r="C388" t="s">
+        <v>23</v>
+      </c>
+      <c r="D388">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>45</v>
+      </c>
+      <c r="B389" t="s">
+        <v>142</v>
+      </c>
+      <c r="C389" t="s">
+        <v>14</v>
+      </c>
+      <c r="D389">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>62</v>
+      </c>
+      <c r="B390" t="s">
+        <v>142</v>
+      </c>
+      <c r="C390" t="s">
+        <v>18</v>
+      </c>
+      <c r="D390">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>44</v>
+      </c>
+      <c r="B391" t="s">
+        <v>142</v>
+      </c>
+      <c r="C391" t="s">
+        <v>7</v>
+      </c>
+      <c r="D391">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
+        <v>149</v>
+      </c>
+      <c r="B392" t="s">
+        <v>142</v>
+      </c>
+      <c r="C392" t="s">
+        <v>7</v>
+      </c>
+      <c r="D392">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
+        <v>76</v>
+      </c>
+      <c r="B393" t="s">
+        <v>142</v>
+      </c>
+      <c r="C393" t="s">
+        <v>23</v>
+      </c>
+      <c r="D393">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>77</v>
+      </c>
+      <c r="B394" t="s">
+        <v>142</v>
+      </c>
+      <c r="C394" t="s">
+        <v>14</v>
+      </c>
+      <c r="D394">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
+        <v>78</v>
+      </c>
+      <c r="B395" t="s">
+        <v>142</v>
+      </c>
+      <c r="C395" t="s">
+        <v>17</v>
+      </c>
+      <c r="D395">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
+        <v>63</v>
+      </c>
+      <c r="B396" t="s">
+        <v>142</v>
+      </c>
+      <c r="C396" t="s">
+        <v>14</v>
+      </c>
+      <c r="D396">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
+        <v>72</v>
+      </c>
+      <c r="B397" t="s">
+        <v>142</v>
+      </c>
+      <c r="C397" t="s">
+        <v>18</v>
+      </c>
+      <c r="D397">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>87</v>
+      </c>
+      <c r="B398" t="s">
+        <v>142</v>
+      </c>
+      <c r="C398" t="s">
+        <v>14</v>
+      </c>
+      <c r="D398">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
+        <v>74</v>
+      </c>
+      <c r="B399" t="s">
+        <v>142</v>
+      </c>
+      <c r="C399" t="s">
+        <v>14</v>
+      </c>
+      <c r="D399">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
+        <v>89</v>
+      </c>
+      <c r="B400" t="s">
+        <v>142</v>
+      </c>
+      <c r="C400" t="s">
+        <v>23</v>
+      </c>
+      <c r="D400">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
+        <v>85</v>
+      </c>
+      <c r="B401" t="s">
+        <v>142</v>
+      </c>
+      <c r="C401" t="s">
+        <v>23</v>
+      </c>
+      <c r="D401">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
+        <v>47</v>
+      </c>
+      <c r="B402" t="s">
+        <v>142</v>
+      </c>
+      <c r="C402" t="s">
+        <v>36</v>
+      </c>
+      <c r="D402">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>150</v>
+      </c>
+      <c r="B403" t="s">
+        <v>142</v>
+      </c>
+      <c r="C403" t="s">
+        <v>23</v>
+      </c>
+      <c r="D403">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
+        <v>41</v>
+      </c>
+      <c r="B404" t="s">
+        <v>142</v>
+      </c>
+      <c r="C404" t="s">
+        <v>36</v>
+      </c>
+      <c r="D404">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
+        <v>117</v>
+      </c>
+      <c r="B405" t="s">
+        <v>142</v>
+      </c>
+      <c r="C405" t="s">
+        <v>14</v>
+      </c>
+      <c r="D405">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A406" t="s">
+        <v>151</v>
+      </c>
+      <c r="B406" t="s">
+        <v>142</v>
+      </c>
+      <c r="C406" t="s">
+        <v>14</v>
+      </c>
+      <c r="D406">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
+        <v>152</v>
+      </c>
+      <c r="B407" t="s">
+        <v>142</v>
+      </c>
+      <c r="C407" t="s">
+        <v>14</v>
+      </c>
+      <c r="D407">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A408" t="s">
+        <v>131</v>
+      </c>
+      <c r="B408" t="s">
+        <v>142</v>
+      </c>
+      <c r="C408" t="s">
+        <v>14</v>
+      </c>
+      <c r="D408">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
         <v>106</v>
       </c>
-      <c r="B352" t="s">
-        <v>16</v>
-      </c>
-      <c r="C352" t="s">
-        <v>14</v>
-      </c>
-      <c r="D352">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A353" t="s">
+      <c r="B409" t="s">
+        <v>142</v>
+      </c>
+      <c r="C409" t="s">
+        <v>14</v>
+      </c>
+      <c r="D409">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
+        <v>107</v>
+      </c>
+      <c r="B410" t="s">
+        <v>142</v>
+      </c>
+      <c r="C410" t="s">
+        <v>14</v>
+      </c>
+      <c r="D410">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A411" t="s">
+        <v>33</v>
+      </c>
+      <c r="B411" t="s">
+        <v>142</v>
+      </c>
+      <c r="C411" t="s">
+        <v>36</v>
+      </c>
+      <c r="D411">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A412" t="s">
+        <v>153</v>
+      </c>
+      <c r="B412" t="s">
+        <v>142</v>
+      </c>
+      <c r="C412" t="s">
+        <v>17</v>
+      </c>
+      <c r="D412">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A413" t="s">
+        <v>103</v>
+      </c>
+      <c r="B413" t="s">
+        <v>142</v>
+      </c>
+      <c r="C413" t="s">
+        <v>17</v>
+      </c>
+      <c r="D413">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A414" t="s">
+        <v>39</v>
+      </c>
+      <c r="B414" t="s">
+        <v>142</v>
+      </c>
+      <c r="C414" t="s">
+        <v>7</v>
+      </c>
+      <c r="D414">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A415" t="s">
+        <v>38</v>
+      </c>
+      <c r="B415" t="s">
+        <v>142</v>
+      </c>
+      <c r="C415" t="s">
+        <v>17</v>
+      </c>
+      <c r="D415">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A416" t="s">
+        <v>40</v>
+      </c>
+      <c r="B416" t="s">
+        <v>142</v>
+      </c>
+      <c r="C416" t="s">
+        <v>14</v>
+      </c>
+      <c r="D416">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A417" t="s">
+        <v>154</v>
+      </c>
+      <c r="B417" t="s">
+        <v>142</v>
+      </c>
+      <c r="C417" t="s">
+        <v>14</v>
+      </c>
+      <c r="D417">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A418" t="s">
+        <v>155</v>
+      </c>
+      <c r="B418" t="s">
+        <v>142</v>
+      </c>
+      <c r="C418" t="s">
+        <v>23</v>
+      </c>
+      <c r="D418">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A419" t="s">
+        <v>111</v>
+      </c>
+      <c r="B419" t="s">
+        <v>142</v>
+      </c>
+      <c r="C419" t="s">
+        <v>17</v>
+      </c>
+      <c r="D419">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A420" t="s">
+        <v>102</v>
+      </c>
+      <c r="B420" t="s">
+        <v>142</v>
+      </c>
+      <c r="C420" t="s">
+        <v>17</v>
+      </c>
+      <c r="D420">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A421" t="s">
+        <v>112</v>
+      </c>
+      <c r="B421" t="s">
+        <v>142</v>
+      </c>
+      <c r="C421" t="s">
+        <v>17</v>
+      </c>
+      <c r="D421">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A422" t="s">
+        <v>113</v>
+      </c>
+      <c r="B422" t="s">
+        <v>142</v>
+      </c>
+      <c r="C422" t="s">
+        <v>14</v>
+      </c>
+      <c r="D422">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A423" t="s">
+        <v>116</v>
+      </c>
+      <c r="B423" t="s">
+        <v>142</v>
+      </c>
+      <c r="C423" t="s">
+        <v>18</v>
+      </c>
+      <c r="D423">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A424" t="s">
+        <v>156</v>
+      </c>
+      <c r="B424" t="s">
+        <v>142</v>
+      </c>
+      <c r="C424" t="s">
+        <v>14</v>
+      </c>
+      <c r="D424">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A425" t="s">
+        <v>157</v>
+      </c>
+      <c r="B425" t="s">
+        <v>142</v>
+      </c>
+      <c r="C425" t="s">
+        <v>14</v>
+      </c>
+      <c r="D425">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A426" t="s">
+        <v>134</v>
+      </c>
+      <c r="B426" t="s">
+        <v>142</v>
+      </c>
+      <c r="C426" t="s">
+        <v>14</v>
+      </c>
+      <c r="D426">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A427" t="s">
+        <v>158</v>
+      </c>
+      <c r="B427" t="s">
+        <v>142</v>
+      </c>
+      <c r="C427" t="s">
+        <v>23</v>
+      </c>
+      <c r="D427">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A428" t="s">
+        <v>100</v>
+      </c>
+      <c r="B428" t="s">
+        <v>142</v>
+      </c>
+      <c r="C428" t="s">
+        <v>36</v>
+      </c>
+      <c r="D428">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A429" t="s">
+        <v>28</v>
+      </c>
+      <c r="B429" t="s">
+        <v>142</v>
+      </c>
+      <c r="C429" t="s">
+        <v>17</v>
+      </c>
+      <c r="D429">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A430" t="s">
+        <v>104</v>
+      </c>
+      <c r="B430" t="s">
+        <v>142</v>
+      </c>
+      <c r="C430" t="s">
+        <v>14</v>
+      </c>
+      <c r="D430">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A431" t="s">
+        <v>43</v>
+      </c>
+      <c r="B431" t="s">
+        <v>142</v>
+      </c>
+      <c r="C431" t="s">
+        <v>23</v>
+      </c>
+      <c r="D431">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A432" t="s">
+        <v>101</v>
+      </c>
+      <c r="B432" t="s">
+        <v>142</v>
+      </c>
+      <c r="C432" t="s">
+        <v>18</v>
+      </c>
+      <c r="D432">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A433" t="s">
+        <v>5</v>
+      </c>
+      <c r="B433" t="s">
+        <v>142</v>
+      </c>
+      <c r="C433" t="s">
+        <v>17</v>
+      </c>
+      <c r="D433">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A434" t="s">
         <v>119</v>
       </c>
-      <c r="B353" t="s">
-        <v>30</v>
-      </c>
-      <c r="C353" t="s">
-        <v>23</v>
-      </c>
-      <c r="D353">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A354" t="s">
-        <v>119</v>
-      </c>
-      <c r="B354" t="s">
-        <v>13</v>
-      </c>
-      <c r="C354" t="s">
-        <v>14</v>
-      </c>
-      <c r="D354">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A355" t="s">
-        <v>119</v>
-      </c>
-      <c r="B355" t="s">
-        <v>16</v>
-      </c>
-      <c r="C355" t="s">
-        <v>14</v>
-      </c>
-      <c r="D355">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A356" t="s">
-        <v>91</v>
+      <c r="B434" t="s">
+        <v>142</v>
+      </c>
+      <c r="C434" t="s">
+        <v>14</v>
+      </c>
+      <c r="D434">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A435" t="s">
+        <v>159</v>
+      </c>
+      <c r="B435" t="s">
+        <v>142</v>
+      </c>
+      <c r="C435" t="s">
+        <v>14</v>
+      </c>
+      <c r="D435">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A436" t="s">
+        <v>160</v>
+      </c>
+      <c r="B436" t="s">
+        <v>142</v>
+      </c>
+      <c r="C436" t="s">
+        <v>14</v>
+      </c>
+      <c r="D436">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A437" t="s">
+        <v>161</v>
+      </c>
+      <c r="B437" t="s">
+        <v>142</v>
+      </c>
+      <c r="C437" t="s">
+        <v>14</v>
+      </c>
+      <c r="D437">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A438" t="s">
+        <v>123</v>
+      </c>
+      <c r="B438" t="s">
+        <v>142</v>
+      </c>
+      <c r="C438" t="s">
+        <v>14</v>
+      </c>
+      <c r="D438">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A439" t="s">
+        <v>122</v>
+      </c>
+      <c r="B439" t="s">
+        <v>142</v>
+      </c>
+      <c r="C439" t="s">
+        <v>14</v>
+      </c>
+      <c r="D439">
+        <v>2006</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E356">
-    <sortCondition ref="A1:A356"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E369">
+    <sortCondition ref="A1:A369"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
